--- a/tests/fichier_test/fp_compare.xlsx
+++ b/tests/fichier_test/fp_compare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>code_profil</t>
   </si>
@@ -52,6 +52,12 @@
     <t>Gestion des tiers</t>
   </si>
   <si>
+    <t>cbtrfozdj</t>
+  </si>
+  <si>
+    <t>Ouverture/Modification extraits de BD</t>
+  </si>
+  <si>
     <t>cbtrepoi</t>
   </si>
   <si>
@@ -104,6 +110,12 @@
   </si>
   <si>
     <t>INFRASTRUCTURE</t>
+  </si>
+  <si>
+    <t>cbtreerjf</t>
+  </si>
+  <si>
+    <t>Ouverture/Modification ractmlzke</t>
   </si>
   <si>
     <t>GT673</t>
@@ -133,7 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -165,12 +177,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -481,19 +496,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="39.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="39.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -521,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -535,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,30 +574,30 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -591,40 +606,40 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
@@ -633,12 +648,12 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
@@ -647,60 +662,60 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -713,8 +728,36 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fichier_test/fp_compare.xlsx
+++ b/tests/fichier_test/fp_compare.xlsx
@@ -1701,8 +1701,8 @@
   </sheetPr>
   <dimension ref="A1:T135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/fichier_test/fp_compare.xlsx
+++ b/tests/fichier_test/fp_compare.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet SCB\Project\reHabi\tests\fichier_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="433">
   <si>
     <t>nom</t>
   </si>
@@ -1318,8 +1323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1376,58 +1380,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1438,10 +1445,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1479,71 +1486,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1571,7 +1578,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1594,11 +1601,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1607,13 +1614,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1623,7 +1630,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1632,7 +1639,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1641,7 +1648,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1649,10 +1656,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1723,33 +1730,35 @@
   </sheetPr>
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="39.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1827,7 +1836,9 @@
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1869,7 +1880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1885,7 +1896,9 @@
       <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1927,7 +1940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1943,7 +1956,9 @@
       <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1985,7 +2000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2001,7 +2016,9 @@
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
@@ -2043,7 +2060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2059,7 +2076,9 @@
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2101,7 +2120,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2117,7 +2136,9 @@
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
@@ -2159,7 +2180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2219,7 +2240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2277,7 +2298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -2337,7 +2358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -2397,7 +2418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
@@ -2457,7 +2478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
@@ -2517,7 +2538,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -2577,7 +2598,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
@@ -2637,7 +2658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -2697,7 +2718,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="17" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
@@ -2755,7 +2776,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -2813,7 +2834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -2871,7 +2892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="20" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
@@ -2929,7 +2950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="21" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
@@ -2987,7 +3008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="22" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>118</v>
       </c>
@@ -3045,7 +3066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="23" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>124</v>
       </c>
@@ -3103,7 +3124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -3161,7 +3182,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -3219,7 +3240,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -3277,7 +3298,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="27" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>124</v>
       </c>
@@ -3335,7 +3356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="28" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3393,7 +3414,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>124</v>
       </c>
@@ -3451,7 +3472,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
@@ -3509,7 +3530,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="31" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
@@ -3567,7 +3588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="32" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -3625,7 +3646,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="33" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -3683,7 +3704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="34" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>135</v>
       </c>
@@ -3741,7 +3762,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="35" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>140</v>
       </c>
@@ -3799,7 +3820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="36" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>140</v>
       </c>
@@ -3857,7 +3878,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="37" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3915,7 +3936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="38" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
@@ -3973,7 +3994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="39" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>143</v>
       </c>
@@ -4031,7 +4052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="40" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>143</v>
       </c>
@@ -4089,7 +4110,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="41" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
@@ -4147,7 +4168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="42" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>154</v>
       </c>
@@ -4205,7 +4226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="43" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>154</v>
       </c>
@@ -4263,7 +4284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="44" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>154</v>
       </c>
@@ -4321,7 +4342,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="45" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>163</v>
       </c>
@@ -4379,7 +4400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="46" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>163</v>
       </c>
@@ -4437,7 +4458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="47" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>163</v>
       </c>
@@ -4495,7 +4516,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="48" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>163</v>
       </c>
@@ -4553,7 +4574,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="49" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>175</v>
       </c>
@@ -4611,7 +4632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="50" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>175</v>
       </c>
@@ -4669,7 +4690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="51" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>175</v>
       </c>
@@ -4727,7 +4748,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="52" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>175</v>
       </c>
@@ -4785,7 +4806,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="53" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>178</v>
       </c>
@@ -4843,7 +4864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="54" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>178</v>
       </c>
@@ -4901,7 +4922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="55" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>181</v>
       </c>
@@ -4959,7 +4980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="56" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>181</v>
       </c>
@@ -5017,7 +5038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="57" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>185</v>
       </c>
@@ -5075,7 +5096,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="58" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>188</v>
       </c>
@@ -5133,7 +5154,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="59" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>188</v>
       </c>
@@ -5191,7 +5212,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="60" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>199</v>
       </c>
@@ -5251,7 +5272,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="61" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>199</v>
       </c>
@@ -5311,7 +5332,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="62" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>203</v>
       </c>
@@ -5369,7 +5390,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="63" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
@@ -5427,7 +5448,7 @@
         <v>214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="64" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>203</v>
       </c>
@@ -5485,7 +5506,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="65" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>219</v>
       </c>
@@ -5543,7 +5564,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="66" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>219</v>
       </c>
@@ -5601,7 +5622,7 @@
         <v>214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="67" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>219</v>
       </c>
@@ -5659,7 +5680,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="68" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>222</v>
       </c>
@@ -5717,7 +5738,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="69" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>222</v>
       </c>
@@ -5775,7 +5796,7 @@
         <v>214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="70" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>222</v>
       </c>
@@ -5833,7 +5854,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="71" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>222</v>
       </c>
@@ -5891,7 +5912,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="72" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>222</v>
       </c>
@@ -5949,7 +5970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="73" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>227</v>
       </c>
@@ -6007,7 +6028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="74" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>227</v>
       </c>
@@ -6065,7 +6086,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="75" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>230</v>
       </c>
@@ -6123,7 +6144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="76" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>230</v>
       </c>
@@ -6181,7 +6202,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="77" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>233</v>
       </c>
@@ -6239,7 +6260,7 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="78" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>233</v>
       </c>
@@ -6297,7 +6318,7 @@
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="79" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>247</v>
       </c>
@@ -6355,7 +6376,7 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="80" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>247</v>
       </c>
@@ -6413,7 +6434,7 @@
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="81" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>247</v>
       </c>
@@ -6471,7 +6492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="82" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>251</v>
       </c>
@@ -6529,7 +6550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="83" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>251</v>
       </c>
@@ -6587,7 +6608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="84" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>257</v>
       </c>
@@ -6645,7 +6666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="85" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>257</v>
       </c>
@@ -6703,7 +6724,7 @@
         <v>261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="86" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
@@ -6761,7 +6782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="87" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>262</v>
       </c>
@@ -6819,7 +6840,7 @@
         <v>261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="88" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>269</v>
       </c>
@@ -6877,7 +6898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="89" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>269</v>
       </c>
@@ -6935,7 +6956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="90" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>277</v>
       </c>
@@ -6995,7 +7016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="91" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>277</v>
       </c>
@@ -7055,7 +7076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="92" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>277</v>
       </c>
@@ -7115,7 +7136,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="93" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>277</v>
       </c>
@@ -7175,7 +7196,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="94" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>277</v>
       </c>
@@ -7235,7 +7256,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="95" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>277</v>
       </c>
@@ -7295,7 +7316,7 @@
         <v>287</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="96" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>288</v>
       </c>
@@ -7353,7 +7374,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="97" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>288</v>
       </c>
@@ -7411,7 +7432,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="98" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>296</v>
       </c>
@@ -7469,7 +7490,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="99" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>296</v>
       </c>
@@ -7527,7 +7548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="100" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>300</v>
       </c>
@@ -7585,7 +7606,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="101" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>305</v>
       </c>
@@ -7643,7 +7664,7 @@
         <v>311</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="102" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>312</v>
       </c>
@@ -7701,7 +7722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="103" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>318</v>
       </c>
@@ -7759,7 +7780,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="104" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>324</v>
       </c>
@@ -7817,7 +7838,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="105" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>328</v>
       </c>
@@ -7875,7 +7896,7 @@
         <v>287</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="106" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>328</v>
       </c>
@@ -7933,7 +7954,7 @@
         <v>287</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="107" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>333</v>
       </c>
@@ -7991,7 +8012,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="108" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>339</v>
       </c>
@@ -8049,7 +8070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="109" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>344</v>
       </c>
@@ -8107,7 +8128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="110" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>350</v>
       </c>
@@ -8165,7 +8186,7 @@
         <v>358</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="111" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>350</v>
       </c>
@@ -8223,7 +8244,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="112" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>360</v>
       </c>
@@ -8281,7 +8302,7 @@
         <v>311</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="113" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>366</v>
       </c>
@@ -8339,7 +8360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="114" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>366</v>
       </c>
@@ -8397,7 +8418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="115" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>366</v>
       </c>
@@ -8455,7 +8476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="116" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>366</v>
       </c>
@@ -8513,7 +8534,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="117" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>371</v>
       </c>
@@ -8571,7 +8592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="118" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>376</v>
       </c>
@@ -8629,7 +8650,7 @@
         <v>287</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="119" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>376</v>
       </c>
@@ -8687,7 +8708,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="120" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>380</v>
       </c>
@@ -8745,7 +8766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="121" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>385</v>
       </c>
@@ -8803,7 +8824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="122" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>390</v>
       </c>
@@ -8861,7 +8882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="123" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>390</v>
       </c>
@@ -8919,7 +8940,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="124" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>390</v>
       </c>
@@ -8977,7 +8998,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="125" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>390</v>
       </c>
@@ -9035,7 +9056,7 @@
         <v>287</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="126" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>394</v>
       </c>
@@ -9093,7 +9114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>399</v>
       </c>
@@ -9151,7 +9172,7 @@
         <v>311</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>405</v>
       </c>
@@ -9209,7 +9230,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>405</v>
       </c>
@@ -9267,7 +9288,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>405</v>
       </c>
@@ -9325,7 +9346,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>405</v>
       </c>
@@ -9383,7 +9404,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>405</v>
       </c>
@@ -9441,7 +9462,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="133" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>410</v>
       </c>
@@ -9501,7 +9522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="134" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>410</v>
       </c>
@@ -9561,7 +9582,7 @@
         <v>287</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="135" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>410</v>
       </c>
@@ -9621,7 +9642,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="136" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>410</v>
       </c>

--- a/tests/fichier_test/fp_compare.xlsx
+++ b/tests/fichier_test/fp_compare.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet SCB\Project\reHabi\tests\fichier_test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="431">
   <si>
     <t>nom</t>
   </si>
@@ -96,6 +91,9 @@
     <t>2013-04-04 08:00:00</t>
   </si>
   <si>
+    <t>2016-04-30 18:00:00</t>
+  </si>
+  <si>
     <t>ENT001</t>
   </si>
   <si>
@@ -189,9 +187,6 @@
     <t>2019-04-04 08:00:00</t>
   </si>
   <si>
-    <t>2016-04-30 18:00:00</t>
-  </si>
-  <si>
     <t>PROF030</t>
   </si>
   <si>
@@ -471,9 +466,6 @@
     <t>2013-05-10 08:00:02</t>
   </si>
   <si>
-    <t>ENT000</t>
-  </si>
-  <si>
     <t>I20982</t>
   </si>
   <si>
@@ -1312,9 +1304,6 @@
   </si>
   <si>
     <t>2021-11-18 15:10:03</t>
-  </si>
-  <si>
-    <t>ENT007</t>
   </si>
   <si>
     <t>PROF039</t>
@@ -1323,8 +1312,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,12 +1325,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1379,62 +1363,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1445,10 +1408,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1486,71 +1449,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1578,7 +1541,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1601,11 +1564,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1614,13 +1577,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1630,7 +1593,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1639,7 +1602,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1648,7 +1611,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1656,10 +1619,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1730,35 +1693,33 @@
   </sheetPr>
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="39.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="23.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1837,19 +1798,19 @@
         <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -1859,28 +1820,28 @@
         <v>24</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1894,22 +1855,22 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -1919,28 +1880,28 @@
         <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1954,22 +1915,22 @@
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -1979,28 +1940,28 @@
         <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2017,50 +1978,50 @@
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>43</v>
+      <c r="N5" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2077,50 +2038,50 @@
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>43</v>
+      <c r="N6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2137,19 +2098,19 @@
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>24</v>
@@ -2159,28 +2120,28 @@
         <v>24</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2197,13 +2158,13 @@
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>57</v>
@@ -2240,28 +2201,28 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>69</v>
@@ -2272,7 +2233,7 @@
       <c r="K9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
         <v>68</v>
       </c>
@@ -2291,14 +2252,14 @@
       <c r="R9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -2324,7 +2285,7 @@
         <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>84</v>
@@ -2340,25 +2301,25 @@
         <v>81</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -2384,7 +2345,7 @@
         <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>84</v>
@@ -2400,25 +2361,25 @@
         <v>81</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
@@ -2444,7 +2405,7 @@
         <v>83</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>84</v>
@@ -2460,25 +2421,25 @@
         <v>81</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
@@ -2520,16 +2481,16 @@
         <v>81</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>87</v>
@@ -2538,7 +2499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -2598,7 +2559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
@@ -2658,7 +2619,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -2687,7 +2648,7 @@
         <v>96</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>80</v>
@@ -2700,16 +2661,16 @@
         <v>81</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>98</v>
@@ -2718,7 +2679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
@@ -2736,10 +2697,10 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>103</v>
@@ -2776,7 +2737,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -2794,10 +2755,10 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>110</v>
@@ -2816,25 +2777,25 @@
         <v>102</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -2852,10 +2813,10 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>110</v>
@@ -2874,25 +2835,25 @@
         <v>102</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
@@ -2910,10 +2871,10 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>110</v>
@@ -2932,10 +2893,10 @@
         <v>102</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>111</v>
@@ -2950,7 +2911,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
@@ -2968,10 +2929,10 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>110</v>
@@ -2990,10 +2951,10 @@
         <v>102</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>115</v>
@@ -3008,7 +2969,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A22" s="2" t="s">
         <v>118</v>
       </c>
@@ -3032,10 +2993,10 @@
         <v>104</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>122</v>
@@ -3048,25 +3009,25 @@
         <v>122</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A23" s="2" t="s">
         <v>124</v>
       </c>
@@ -3084,10 +3045,10 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>127</v>
@@ -3106,25 +3067,25 @@
         <v>126</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -3142,10 +3103,10 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>127</v>
@@ -3164,10 +3125,10 @@
         <v>126</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>115</v>
@@ -3182,7 +3143,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -3200,10 +3161,10 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>89</v>
@@ -3240,7 +3201,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -3258,10 +3219,10 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>129</v>
@@ -3298,7 +3259,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A27" s="2" t="s">
         <v>124</v>
       </c>
@@ -3316,10 +3277,10 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>110</v>
@@ -3338,25 +3299,25 @@
         <v>126</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3374,10 +3335,10 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>110</v>
@@ -3396,25 +3357,25 @@
         <v>126</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A29" s="2" t="s">
         <v>124</v>
       </c>
@@ -3432,10 +3393,10 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>110</v>
@@ -3454,10 +3415,10 @@
         <v>126</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>111</v>
@@ -3472,7 +3433,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
@@ -3490,10 +3451,10 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>110</v>
@@ -3512,10 +3473,10 @@
         <v>126</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>115</v>
@@ -3530,7 +3491,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
@@ -3570,25 +3531,25 @@
         <v>134</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -3628,10 +3589,10 @@
         <v>134</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>115</v>
@@ -3646,7 +3607,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -3686,25 +3647,25 @@
         <v>137</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="2" t="s">
         <v>135</v>
       </c>
@@ -3744,10 +3705,10 @@
         <v>137</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>111</v>
@@ -3762,7 +3723,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="2" t="s">
         <v>140</v>
       </c>
@@ -3780,10 +3741,10 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>138</v>
@@ -3802,25 +3763,25 @@
         <v>142</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="2" t="s">
         <v>140</v>
       </c>
@@ -3838,10 +3799,10 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>138</v>
@@ -3860,10 +3821,10 @@
         <v>142</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>111</v>
@@ -3878,7 +3839,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3896,13 +3857,13 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>83</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>23</v>
@@ -3918,25 +3879,25 @@
         <v>146</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
@@ -3954,7 +3915,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>83</v>
@@ -3976,30 +3937,30 @@
         <v>146</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
@@ -4008,11 +3969,11 @@
         <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>83</v>
@@ -4034,10 +3995,10 @@
         <v>146</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>111</v>
@@ -4052,12 +4013,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>78</v>
@@ -4092,10 +4053,10 @@
         <v>146</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>115</v>
@@ -4110,12 +4071,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>78</v>
@@ -4124,56 +4085,56 @@
         <v>23</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>22</v>
@@ -4182,14 +4143,14 @@
         <v>23</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>127</v>
@@ -4198,40 +4159,40 @@
         <v>23</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>148</v>
@@ -4240,14 +4201,14 @@
         <v>23</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>138</v>
@@ -4256,20 +4217,20 @@
         <v>23</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>111</v>
@@ -4284,12 +4245,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>22</v>
@@ -4298,14 +4259,14 @@
         <v>23</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>110</v>
@@ -4314,20 +4275,20 @@
         <v>23</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>115</v>
@@ -4342,83 +4303,83 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>104</v>
@@ -4430,53 +4391,53 @@
         <v>23</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>104</v>
@@ -4488,20 +4449,20 @@
         <v>23</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>111</v>
@@ -4516,21 +4477,21 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
@@ -4546,20 +4507,20 @@
         <v>23</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>115</v>
@@ -4574,28 +4535,28 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>110</v>
@@ -4614,46 +4575,46 @@
         <v>134</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>110</v>
@@ -4672,46 +4633,46 @@
         <v>134</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>110</v>
@@ -4730,10 +4691,10 @@
         <v>134</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>111</v>
@@ -4748,28 +4709,28 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>110</v>
@@ -4788,10 +4749,10 @@
         <v>134</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>115</v>
@@ -4806,12 +4767,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>132</v>
@@ -4820,7 +4781,7 @@
         <v>133</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
@@ -4830,46 +4791,46 @@
         <v>83</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>132</v>
@@ -4878,7 +4839,7 @@
         <v>133</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
@@ -4888,55 +4849,55 @@
         <v>83</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A55" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
@@ -4946,55 +4907,55 @@
         <v>104</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A56" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
@@ -5004,46 +4965,46 @@
         <v>104</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N56" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>22</v>
@@ -5052,14 +5013,14 @@
         <v>23</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>85</v>
@@ -5068,26 +5029,26 @@
         <v>86</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>87</v>
@@ -5096,12 +5057,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>78</v>
@@ -5110,7 +5071,7 @@
         <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
@@ -5120,20 +5081,20 @@
         <v>83</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>105</v>
@@ -5142,24 +5103,24 @@
         <v>106</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R58" s="2" t="s">
         <v>104</v>
       </c>
       <c r="S58" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="T58" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>78</v>
@@ -5168,7 +5129,7 @@
         <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
@@ -5178,20 +5139,20 @@
         <v>83</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>105</v>
@@ -5200,24 +5161,24 @@
         <v>106</v>
       </c>
       <c r="Q59" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R59" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="S59" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="T59" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="T59" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A60" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>22</v>
@@ -5226,32 +5187,32 @@
         <v>23</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>105</v>
@@ -5260,24 +5221,24 @@
         <v>106</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>104</v>
       </c>
       <c r="S60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T60" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="T60" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A61" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>22</v>
@@ -5286,32 +5247,32 @@
         <v>23</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>105</v>
@@ -5320,33 +5281,33 @@
         <v>106</v>
       </c>
       <c r="Q61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R61" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="S61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="S61" s="2" t="s">
+      <c r="T61" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="T61" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A62" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
@@ -5356,55 +5317,55 @@
         <v>104</v>
       </c>
       <c r="I62" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K62" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P62" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="Q62" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="R62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S62" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="R62" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S62" s="2" t="s">
+      <c r="T62" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="T62" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A63" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
@@ -5414,55 +5375,55 @@
         <v>104</v>
       </c>
       <c r="I63" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P63" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P63" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="Q63" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="R63" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="S63" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="S63" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="T63" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A64" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
@@ -5472,46 +5433,46 @@
         <v>104</v>
       </c>
       <c r="I64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K64" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P64" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="Q64" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="R64" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="S64" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="S64" s="2" t="s">
+      <c r="T64" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A65" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="T64" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>22</v>
@@ -5520,56 +5481,56 @@
         <v>23</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K65" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P65" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="Q65" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="R65" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S65" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="R65" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S65" s="2" t="s">
+      <c r="T65" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="T65" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A66" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>22</v>
@@ -5578,56 +5539,56 @@
         <v>23</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K66" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O66" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P66" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P66" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="Q66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="R66" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="R66" s="2" t="s">
+      <c r="S66" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="S66" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="T66" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>22</v>
@@ -5636,56 +5597,56 @@
         <v>23</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K67" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A68" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N67" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>132</v>
@@ -5694,7 +5655,7 @@
         <v>133</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
@@ -5704,46 +5665,46 @@
         <v>83</v>
       </c>
       <c r="I68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K68" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="Q68" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="R68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S68" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="R68" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S68" s="2" t="s">
+      <c r="T68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="T68" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A69" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>132</v>
@@ -5752,7 +5713,7 @@
         <v>133</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
@@ -5762,46 +5723,46 @@
         <v>83</v>
       </c>
       <c r="I69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K69" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="Q69" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="R69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="S69" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="S69" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="T69" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A70" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>132</v>
@@ -5810,7 +5771,7 @@
         <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
@@ -5820,46 +5781,46 @@
         <v>83</v>
       </c>
       <c r="I70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K70" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P70" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P70" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="Q70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="R70" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="R70" s="2" t="s">
+      <c r="S70" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="S70" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="T70" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A71" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>132</v>
@@ -5868,7 +5829,7 @@
         <v>133</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
@@ -5878,20 +5839,20 @@
         <v>83</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>105</v>
@@ -5912,12 +5873,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A72" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>132</v>
@@ -5926,7 +5887,7 @@
         <v>133</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
@@ -5936,20 +5897,20 @@
         <v>83</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>71</v>
@@ -5970,12 +5931,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>120</v>
@@ -5984,7 +5945,7 @@
         <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
@@ -6000,14 +5961,14 @@
         <v>70</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>71</v>
@@ -6028,12 +5989,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A74" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>120</v>
@@ -6042,7 +6003,7 @@
         <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
@@ -6058,14 +6019,14 @@
         <v>70</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>71</v>
@@ -6073,25 +6034,25 @@
       <c r="P74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q74" s="5" t="s">
+      <c r="Q74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R74" s="5" t="s">
+      <c r="R74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S74" s="5" t="s">
+      <c r="S74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="T74" s="5" t="s">
+      <c r="T74" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A75" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>22</v>
@@ -6100,14 +6061,14 @@
         <v>23</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>69</v>
@@ -6116,14 +6077,14 @@
         <v>70</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>71</v>
@@ -6144,12 +6105,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
@@ -6158,14 +6119,14 @@
         <v>23</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>69</v>
@@ -6174,14 +6135,14 @@
         <v>70</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>71</v>
@@ -6189,25 +6150,25 @@
       <c r="P76" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q76" s="5" t="s">
+      <c r="Q76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R76" s="5" t="s">
+      <c r="R76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S76" s="5" t="s">
+      <c r="S76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="T76" s="5" t="s">
+      <c r="T76" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A77" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>78</v>
@@ -6216,7 +6177,7 @@
         <v>79</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
@@ -6226,46 +6187,46 @@
         <v>83</v>
       </c>
       <c r="I77" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="K77" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P77" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="Q77" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="R77" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="R77" s="2" t="s">
+      <c r="S77" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="S77" s="2" t="s">
+      <c r="T77" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="T77" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A78" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>78</v>
@@ -6274,7 +6235,7 @@
         <v>79</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
@@ -6284,46 +6245,46 @@
         <v>83</v>
       </c>
       <c r="I78" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="K78" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O78" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P78" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P78" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="Q78" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R78" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="S78" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="S78" s="2" t="s">
+      <c r="T78" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A79" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="T78" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>22</v>
@@ -6332,56 +6293,56 @@
         <v>23</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I79" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="K79" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O79" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P79" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="Q79" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="R79" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="R79" s="2" t="s">
+      <c r="S79" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="S79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="T79" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A80" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>22</v>
@@ -6390,56 +6351,56 @@
         <v>23</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I80" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="K80" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O80" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P80" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="Q80" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R80" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="R80" s="2" t="s">
+      <c r="S80" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="S80" s="2" t="s">
+      <c r="T80" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A81" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>22</v>
@@ -6448,30 +6409,30 @@
         <v>23</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>71</v>
@@ -6492,21 +6453,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A82" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
@@ -6516,55 +6477,55 @@
         <v>104</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q82" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S82" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="R82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
@@ -6574,20 +6535,20 @@
         <v>104</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>71</v>
@@ -6608,12 +6569,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A84" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>22</v>
@@ -6626,13 +6587,13 @@
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>58</v>
@@ -6666,12 +6627,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A85" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
@@ -6684,13 +6645,13 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>58</v>
@@ -6718,50 +6679,50 @@
         <v>63</v>
       </c>
       <c r="S85" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="T85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="T85" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A86" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I86" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>58</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>60</v>
@@ -6782,44 +6743,44 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A87" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I87" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>58</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>60</v>
@@ -6834,272 +6795,272 @@
         <v>63</v>
       </c>
       <c r="S87" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="T87" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="T87" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A88" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A89" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A90" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="G90" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I90" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A91" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="N90" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="G91" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I91" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A92" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S91" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T91" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="G92" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>69</v>
@@ -7108,14 +7069,14 @@
         <v>70</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>71</v>
@@ -7136,30 +7097,30 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A93" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="G93" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>69</v>
@@ -7168,14 +7129,14 @@
         <v>70</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>71</v>
@@ -7183,59 +7144,59 @@
       <c r="P93" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q93" s="5" t="s">
+      <c r="Q93" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R93" s="5" t="s">
+      <c r="R93" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S93" s="5" t="s">
+      <c r="S93" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="T93" s="5" t="s">
+      <c r="T93" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A94" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="G94" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I94" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>105</v>
@@ -7256,116 +7217,116 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A95" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="J95" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O95" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P95" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P95" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="Q95" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R95" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="R95" s="2" t="s">
+      <c r="S95" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="S95" s="2" t="s">
+      <c r="T95" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="T95" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A96" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="J96" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>97</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>98</v>
@@ -7374,114 +7335,114 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A97" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="J97" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q97" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S97" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A98" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I98" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N98" s="3">
         <v>44698.333333333336</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>97</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>98</v>
@@ -7490,102 +7451,102 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A99" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I99" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N99" s="3">
         <v>44698.333333333336</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q99" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S99" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="R99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S99" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A100" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="I100" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>105</v>
@@ -7606,114 +7567,114 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A101" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="I101" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R101" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S101" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="T101" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="T101" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A102" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I102" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>97</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>98</v>
@@ -7722,102 +7683,102 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A103" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="I103" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O103" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P103" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P103" s="2" t="s">
+      <c r="Q103" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q103" s="2" t="s">
+      <c r="R103" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S103" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="R103" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S103" s="2" t="s">
+      <c r="T103" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="T103" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A104" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I104" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>71</v>
@@ -7838,34 +7799,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A105" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="I105" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>24</v>
@@ -7878,52 +7839,52 @@
         <v>59</v>
       </c>
       <c r="O105" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P105" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P105" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="Q105" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R105" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="R105" s="2" t="s">
+      <c r="S105" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="S105" s="2" t="s">
+      <c r="T105" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="T105" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="I106" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>24</v>
@@ -7936,62 +7897,62 @@
         <v>24</v>
       </c>
       <c r="O106" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P106" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P106" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="Q106" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R106" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="R106" s="2" t="s">
+      <c r="S106" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="S106" s="2" t="s">
+      <c r="T106" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="T106" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A107" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H107" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I107" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>58</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>60</v>
@@ -8012,28 +7973,28 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A108" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>129</v>
@@ -8042,11 +8003,11 @@
         <v>84</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N108" s="3" t="s">
         <v>59</v>
@@ -8070,56 +8031,56 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A109" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H109" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="I109" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>97</v>
       </c>
       <c r="R109" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>98</v>
@@ -8128,44 +8089,44 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A110" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H110" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I110" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="K110" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>90</v>
@@ -8180,50 +8141,50 @@
         <v>93</v>
       </c>
       <c r="S110" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="T110" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="T110" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A111" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I111" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>105</v>
@@ -8244,334 +8205,334 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A112" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="I112" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S112" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="T112" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="T112" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A113" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H113" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I113" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R113" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A114" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H114" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I114" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A115" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I115" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R115" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A116" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I116" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P116" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P116" s="2" t="s">
+      <c r="Q116" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q116" s="2" t="s">
+      <c r="R116" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S116" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="R116" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S116" s="2" t="s">
+      <c r="T116" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="T116" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A117" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="I117" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>71</v>
@@ -8592,34 +8553,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A118" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H118" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I118" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>24</v>
@@ -8632,52 +8593,52 @@
         <v>24</v>
       </c>
       <c r="O118" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P118" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P118" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="Q118" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R118" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="R118" s="2" t="s">
+      <c r="S118" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="S118" s="2" t="s">
+      <c r="T118" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="T118" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A119" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H119" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I119" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>24</v>
@@ -8690,46 +8651,46 @@
         <v>59</v>
       </c>
       <c r="O119" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P119" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P119" s="2" t="s">
+      <c r="Q119" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q119" s="2" t="s">
+      <c r="R119" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S119" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="R119" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S119" s="2" t="s">
+      <c r="T119" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="T119" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A120" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H120" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>57</v>
@@ -8738,14 +8699,14 @@
         <v>58</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>60</v>
@@ -8766,28 +8727,28 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A121" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>89</v>
@@ -8796,11 +8757,11 @@
         <v>84</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N121" s="3" t="s">
         <v>59</v>
@@ -8824,56 +8785,56 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A122" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>96</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N122" s="3" t="s">
         <v>59</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>97</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>98</v>
@@ -8882,202 +8843,202 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A123" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H123" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I123" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q123" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S123" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="R123" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S123" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="T123" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A124" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H124" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H124" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I124" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O124" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P124" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P124" s="2" t="s">
+      <c r="Q124" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q124" s="2" t="s">
+      <c r="R124" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S124" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="R124" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S124" s="2" t="s">
+      <c r="T124" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="T124" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A125" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="I125" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O125" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P125" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P125" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="Q125" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R125" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="R125" s="2" t="s">
+      <c r="S125" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="S125" s="2" t="s">
+      <c r="T125" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="T125" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A126" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>103</v>
@@ -9086,11 +9047,11 @@
         <v>104</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N126" s="3" t="s">
         <v>59</v>
@@ -9114,160 +9075,160 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="E127" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="5"/>
+      <c r="G127" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K127" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="N127" s="6" t="s">
-        <v>403</v>
+      <c r="K127" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S127" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="T127" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="T127" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="C128" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="E128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="2" t="s">
+      <c r="J128" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+      <c r="A129" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H128" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N128" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q128" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="R128" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S128" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="T128" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F129" s="10"/>
-      <c r="G129" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="I129" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K129" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N129" s="6" t="s">
-        <v>157</v>
+      <c r="K129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>105</v>
@@ -9276,56 +9237,56 @@
         <v>106</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R129" s="2" t="s">
         <v>104</v>
       </c>
       <c r="S129" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T129" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="T129" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="C130" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="D130" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D130" s="10" t="s">
-        <v>408</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F130" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="F130" s="5"/>
       <c r="G130" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H130" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H130" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="I130" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K130" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N130" s="6" t="s">
-        <v>157</v>
+      <c r="K130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>105</v>
@@ -9334,68 +9295,68 @@
         <v>106</v>
       </c>
       <c r="Q130" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R130" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R130" s="2" t="s">
+      <c r="S130" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="S130" s="2" t="s">
+      <c r="T130" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="T130" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="C131" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>408</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F131" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="F131" s="5"/>
       <c r="G131" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H131" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H131" s="10" t="s">
+      <c r="I131" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="J131" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N131" s="6" t="s">
-        <v>157</v>
+        <v>43</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q131" s="2" t="s">
         <v>97</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>98</v>
@@ -9404,104 +9365,104 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="C132" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D132" s="10" t="s">
-        <v>408</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F132" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="F132" s="5"/>
       <c r="G132" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H132" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H132" s="10" t="s">
+      <c r="I132" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I132" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="J132" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N132" s="6" t="s">
-        <v>157</v>
+        <v>43</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q132" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S132" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="R132" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S132" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="T132" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A133" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>71</v>
@@ -9522,106 +9483,106 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A134" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K134" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I134" s="2" t="s">
+      <c r="L134" s="2"/>
+      <c r="M134" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P134" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q134" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R134" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="S134" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="T134" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A135" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="L134" s="9"/>
-      <c r="M134" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="N134" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="O134" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="P134" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q134" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="R134" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="S134" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T134" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B135" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I135" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>58</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="L135" s="9"/>
+        <v>413</v>
+      </c>
+      <c r="L135" s="2"/>
       <c r="M135" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O135" s="2" t="s">
         <v>60</v>
@@ -9642,46 +9603,46 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A136" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="G136" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="L136" s="9"/>
+        <v>413</v>
+      </c>
+      <c r="L136" s="2"/>
       <c r="M136" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O136" s="2" t="s">
         <v>90</v>

--- a/tests/fichier_test/fp_compare.xlsx
+++ b/tests/fichier_test/fp_compare.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet SCB\Project\reHabi\tests\fichier_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="4283453520"/>
 </workbook>
 </file>
 
@@ -1312,8 +1317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1364,40 +1368,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1408,10 +1415,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1449,71 +1456,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1541,7 +1548,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1564,11 +1571,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1577,13 +1584,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1593,7 +1600,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1602,7 +1609,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1611,7 +1618,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1619,10 +1626,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1693,33 +1700,35 @@
   </sheetPr>
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="39.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2021,7 +2030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2141,7 +2150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2259,7 +2268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -2319,7 +2328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -2559,7 +2568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
@@ -2619,7 +2628,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="17" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
@@ -2737,7 +2746,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -2795,7 +2804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -2853,7 +2862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="20" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
@@ -2911,7 +2920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="21" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
@@ -2969,7 +2978,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="22" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>118</v>
       </c>
@@ -3027,7 +3036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="23" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>124</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -3201,7 +3210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -3259,7 +3268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="27" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>124</v>
       </c>
@@ -3317,7 +3326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="28" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>124</v>
       </c>
@@ -3433,7 +3442,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
@@ -3491,7 +3500,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="31" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
@@ -3549,7 +3558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="32" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -3607,7 +3616,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="33" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -3665,7 +3674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="34" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>135</v>
       </c>
@@ -3723,7 +3732,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="35" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>140</v>
       </c>
@@ -3781,7 +3790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="36" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>140</v>
       </c>
@@ -3839,7 +3848,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="37" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3897,7 +3906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="38" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
@@ -3955,7 +3964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="39" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>143</v>
       </c>
@@ -4013,7 +4022,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="40" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>143</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="41" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>153</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="42" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>153</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="43" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>153</v>
       </c>
@@ -4195,7 +4204,7 @@
         <v>159</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>23</v>
@@ -4245,7 +4254,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="44" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>153</v>
       </c>
@@ -4303,7 +4312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="45" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>162</v>
       </c>
@@ -4361,7 +4370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="46" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>162</v>
       </c>
@@ -4419,7 +4428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="47" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>162</v>
       </c>
@@ -4477,7 +4486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="48" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
@@ -4535,7 +4544,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="49" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>174</v>
       </c>
@@ -4593,7 +4602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="50" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>174</v>
       </c>
@@ -4651,7 +4660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="51" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>174</v>
       </c>
@@ -4709,7 +4718,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="52" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>174</v>
       </c>
@@ -4767,7 +4776,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="53" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>177</v>
       </c>
@@ -4825,7 +4834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="54" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>177</v>
       </c>
@@ -4883,7 +4892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="55" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>180</v>
       </c>
@@ -4941,7 +4950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="56" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>180</v>
       </c>
@@ -4999,7 +5008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="57" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="58" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>187</v>
       </c>
@@ -5115,7 +5124,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="59" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>187</v>
       </c>
@@ -5173,7 +5182,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="60" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>198</v>
       </c>
@@ -5233,7 +5242,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="61" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>198</v>
       </c>
@@ -5293,7 +5302,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="62" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>202</v>
       </c>
@@ -5351,7 +5360,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="63" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>202</v>
       </c>
@@ -5409,7 +5418,7 @@
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="64" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>202</v>
       </c>
@@ -5467,7 +5476,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="65" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>218</v>
       </c>
@@ -5525,7 +5534,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="66" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>218</v>
       </c>
@@ -5583,7 +5592,7 @@
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="67" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>218</v>
       </c>
@@ -5641,7 +5650,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="68" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>221</v>
       </c>
@@ -5699,7 +5708,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="69" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>221</v>
       </c>
@@ -5757,7 +5766,7 @@
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="70" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>221</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="71" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>221</v>
       </c>
@@ -5873,7 +5882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="72" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>221</v>
       </c>
@@ -5931,7 +5940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="73" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>226</v>
       </c>
@@ -5989,7 +5998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="74" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>226</v>
       </c>
@@ -6047,7 +6056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="75" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>229</v>
       </c>
@@ -6105,7 +6114,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="76" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>229</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="77" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>232</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="78" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>232</v>
       </c>
@@ -6279,7 +6288,7 @@
         <v>244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="79" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>246</v>
       </c>
@@ -6337,7 +6346,7 @@
         <v>242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="80" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>246</v>
       </c>
@@ -6395,7 +6404,7 @@
         <v>244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="81" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>246</v>
       </c>
@@ -6453,7 +6462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="82" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>250</v>
       </c>
@@ -6511,7 +6520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="83" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>250</v>
       </c>
@@ -6569,7 +6578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="84" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>256</v>
       </c>
@@ -6627,7 +6636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="85" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>256</v>
       </c>
@@ -6685,7 +6694,7 @@
         <v>260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="86" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>261</v>
       </c>
@@ -6743,7 +6752,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="87" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>261</v>
       </c>
@@ -6801,7 +6810,7 @@
         <v>260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="88" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>268</v>
       </c>
@@ -6859,7 +6868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="89" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>268</v>
       </c>
@@ -6917,7 +6926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="90" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>276</v>
       </c>
@@ -6977,7 +6986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="91" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>276</v>
       </c>
@@ -7037,7 +7046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="92" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>276</v>
       </c>
@@ -7097,7 +7106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="93" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>276</v>
       </c>
@@ -7157,7 +7166,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="94" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>276</v>
       </c>
@@ -7217,7 +7226,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="95" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>276</v>
       </c>
@@ -7277,7 +7286,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="96" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>287</v>
       </c>
@@ -7335,7 +7344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="97" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>287</v>
       </c>
@@ -7393,7 +7402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="98" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>295</v>
       </c>
@@ -7451,7 +7460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="99" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>295</v>
       </c>
@@ -7509,7 +7518,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="100" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>299</v>
       </c>
@@ -7567,7 +7576,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="101" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>304</v>
       </c>
@@ -7625,7 +7634,7 @@
         <v>310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="102" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>311</v>
       </c>
@@ -7683,7 +7692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="103" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>317</v>
       </c>
@@ -7741,7 +7750,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="104" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>323</v>
       </c>
@@ -7799,7 +7808,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="105" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>327</v>
       </c>
@@ -7857,7 +7866,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="106" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>327</v>
       </c>
@@ -7915,7 +7924,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="107" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>332</v>
       </c>
@@ -7973,7 +7982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="108" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>338</v>
       </c>
@@ -8031,7 +8040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="109" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>343</v>
       </c>
@@ -8089,7 +8098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="110" spans="1:20" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>349</v>
       </c>
@@ -8147,7 +8156,7 @@
         <v>357</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="111" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>349</v>
       </c>
@@ -8205,7 +8214,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="112" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>359</v>
       </c>
@@ -8263,7 +8272,7 @@
         <v>310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="113" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>365</v>
       </c>
@@ -8321,7 +8330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="114" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>365</v>
       </c>
@@ -8379,7 +8388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="115" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>365</v>
       </c>
@@ -8437,7 +8446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="116" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>365</v>
       </c>
@@ -8495,7 +8504,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="117" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>370</v>
       </c>
@@ -8553,7 +8562,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="118" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>375</v>
       </c>
@@ -8611,7 +8620,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="119" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>375</v>
       </c>
@@ -8669,7 +8678,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="120" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>379</v>
       </c>
@@ -8727,7 +8736,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="121" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>384</v>
       </c>
@@ -8785,7 +8794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="122" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>389</v>
       </c>
@@ -8843,7 +8852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="123" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>389</v>
       </c>
@@ -8901,7 +8910,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="124" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>389</v>
       </c>
@@ -8959,7 +8968,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="125" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>389</v>
       </c>
@@ -9017,7 +9026,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="126" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>393</v>
       </c>
@@ -9075,7 +9084,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+    <row r="127" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>398</v>
       </c>
@@ -9133,7 +9142,7 @@
         <v>310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+    <row r="128" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>404</v>
       </c>
@@ -9191,7 +9200,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+    <row r="129" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>404</v>
       </c>
@@ -9249,7 +9258,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+    <row r="130" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>404</v>
       </c>
@@ -9307,7 +9316,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row r="131" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>404</v>
       </c>
@@ -9365,7 +9374,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    <row r="132" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>404</v>
       </c>
@@ -9423,7 +9432,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="133" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>409</v>
       </c>
@@ -9483,7 +9492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="134" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>409</v>
       </c>
@@ -9543,7 +9552,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="135" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>409</v>
       </c>
@@ -9603,7 +9612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="136" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>409</v>
       </c>
